--- a/uv-k5font/font.xlsx
+++ b/uv-k5font/font.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="958">
   <si>
     <t>Step</t>
   </si>
@@ -2023,6 +2023,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">        {0x77, 0xb7, 0xd1, 0xf7, 0xf7, 0x80, 0x75, 0xb5, 0xd5, 0xf7, 0xff, 0x57, 0xf9, 0xff},/*</t>
     </r>
     <r>
@@ -10427,6 +10433,31 @@
         <charset val="134"/>
       </rPr>
       <t>ROGER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MDC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首音</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ROGER</t>
     </r>
   </si>
   <si>
@@ -11867,7 +11898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11904,10 +11935,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12465,10 +12493,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:11">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -12487,7 +12515,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -12506,7 +12534,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -12525,7 +12553,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -12544,7 +12572,7 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -12563,7 +12591,7 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -12582,7 +12610,7 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -12601,7 +12629,7 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -12620,7 +12648,7 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -12639,7 +12667,7 @@
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -12658,7 +12686,7 @@
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -12677,7 +12705,7 @@
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -12696,7 +12724,7 @@
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -12715,7 +12743,7 @@
       <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -12734,7 +12762,7 @@
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -12753,7 +12781,7 @@
       <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -12772,7 +12800,7 @@
       <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -12791,7 +12819,7 @@
       <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -12810,7 +12838,7 @@
       <c r="A19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -12829,7 +12857,7 @@
       <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -12848,7 +12876,7 @@
       <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -12867,7 +12895,7 @@
       <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -12886,7 +12914,7 @@
       <c r="A23" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -12905,7 +12933,7 @@
       <c r="A24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -12924,7 +12952,7 @@
       <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -12943,7 +12971,7 @@
       <c r="A26" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -12962,7 +12990,7 @@
       <c r="A27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>105</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -12981,7 +13009,7 @@
       <c r="A28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -13000,7 +13028,7 @@
       <c r="A29" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -13019,7 +13047,7 @@
       <c r="A30" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -13038,7 +13066,7 @@
       <c r="A31" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -13057,7 +13085,7 @@
       <c r="A32" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -13076,7 +13104,7 @@
       <c r="A33" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -13095,7 +13123,7 @@
       <c r="A34" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -13114,7 +13142,7 @@
       <c r="A35" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -13133,7 +13161,7 @@
       <c r="A36" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -13152,7 +13180,7 @@
       <c r="A37" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -13171,7 +13199,7 @@
       <c r="A38" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -13190,7 +13218,7 @@
       <c r="A39" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -13209,7 +13237,7 @@
       <c r="A40" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>157</v>
       </c>
       <c r="C40" s="4"/>
@@ -13222,7 +13250,7 @@
       <c r="A41" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>160</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -13241,7 +13269,7 @@
       <c r="A42" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -13260,7 +13288,7 @@
       <c r="A43" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -13279,7 +13307,7 @@
       <c r="A44" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -13298,7 +13326,7 @@
       <c r="A45" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>172</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -13314,10 +13342,10 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" ht="18" spans="1:11">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>175</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -13333,10 +13361,10 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" ht="18" spans="1:11">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -13352,10 +13380,10 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" ht="18" spans="1:11">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -13371,10 +13399,10 @@
       <c r="K48" s="4"/>
     </row>
     <row r="49" ht="18" spans="1:11">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>184</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -13390,10 +13418,10 @@
       <c r="K49" s="4"/>
     </row>
     <row r="50" ht="18" spans="1:11">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -13409,10 +13437,10 @@
       <c r="K50" s="4"/>
     </row>
     <row r="51" ht="18" spans="1:11">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>190</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -13428,10 +13456,10 @@
       <c r="K51" s="4"/>
     </row>
     <row r="52" ht="36" spans="1:11">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -13447,10 +13475,10 @@
       <c r="K52" s="4"/>
     </row>
     <row r="53" ht="36" spans="1:11">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>196</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -13466,10 +13494,10 @@
       <c r="K53" s="4"/>
     </row>
     <row r="54" ht="18" spans="1:11">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -13485,10 +13513,10 @@
       <c r="K54" s="4"/>
     </row>
     <row r="55" ht="18" spans="1:11">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>201</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -13504,10 +13532,10 @@
       <c r="K55" s="4"/>
     </row>
     <row r="56" ht="18" spans="1:11">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -13523,10 +13551,10 @@
       <c r="K56" s="4"/>
     </row>
     <row r="57" ht="36" spans="1:11">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>204</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -13542,10 +13570,10 @@
       <c r="K57" s="4"/>
     </row>
     <row r="58" ht="36" spans="1:11">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>207</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -13561,10 +13589,10 @@
       <c r="K58" s="4"/>
     </row>
     <row r="59" ht="36" spans="1:11">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>210</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -13580,10 +13608,10 @@
       <c r="K59" s="4"/>
     </row>
     <row r="60" ht="36" spans="1:11">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>213</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -13599,10 +13627,10 @@
       <c r="K60" s="4"/>
     </row>
     <row r="61" ht="36" spans="1:11">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>216</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -13618,10 +13646,10 @@
       <c r="K61" s="4"/>
     </row>
     <row r="62" ht="18" spans="1:11">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>219</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -13637,10 +13665,10 @@
       <c r="K62" s="4"/>
     </row>
     <row r="63" ht="36" spans="1:11">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>222</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -13656,10 +13684,10 @@
       <c r="K63" s="4"/>
     </row>
     <row r="64" ht="18" spans="1:11">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -13675,10 +13703,10 @@
       <c r="K64" s="4"/>
     </row>
     <row r="65" ht="36" spans="1:11">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -13694,10 +13722,10 @@
       <c r="K65" s="4"/>
     </row>
     <row r="66" ht="18" spans="1:11">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>231</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -13713,10 +13741,10 @@
       <c r="K66" s="4"/>
     </row>
     <row r="67" ht="54" spans="1:11">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>234</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -13732,10 +13760,10 @@
       <c r="K67" s="4"/>
     </row>
     <row r="68" ht="36" spans="1:11">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -13751,10 +13779,10 @@
       <c r="K68" s="4"/>
     </row>
     <row r="69" ht="18" spans="1:11">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>240</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -13770,10 +13798,10 @@
       <c r="K69" s="4"/>
     </row>
     <row r="70" ht="18" spans="1:11">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -13789,10 +13817,10 @@
       <c r="K70" s="4"/>
     </row>
     <row r="71" ht="36" spans="1:11">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -13808,10 +13836,10 @@
       <c r="K71" s="4"/>
     </row>
     <row r="72" ht="18" spans="1:11">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>248</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -13827,10 +13855,10 @@
       <c r="K72" s="4"/>
     </row>
     <row r="73" ht="18" spans="1:11">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>251</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -13846,10 +13874,10 @@
       <c r="K73" s="4"/>
     </row>
     <row r="74" ht="18" spans="1:11">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>254</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -13865,10 +13893,10 @@
       <c r="K74" s="4"/>
     </row>
     <row r="75" ht="36" spans="1:11">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -13884,10 +13912,10 @@
       <c r="K75" s="4"/>
     </row>
     <row r="76" ht="36" spans="1:11">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>260</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -13903,10 +13931,10 @@
       <c r="K76" s="4"/>
     </row>
     <row r="77" ht="18" spans="1:11">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>262</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -13922,10 +13950,10 @@
       <c r="K77" s="4"/>
     </row>
     <row r="78" ht="18" spans="1:11">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>265</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -13941,10 +13969,10 @@
       <c r="K78" s="4"/>
     </row>
     <row r="79" ht="18" spans="1:11">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>268</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -13960,10 +13988,10 @@
       <c r="K79" s="4"/>
     </row>
     <row r="80" ht="18" spans="1:11">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>271</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -13979,10 +14007,10 @@
       <c r="K80" s="4"/>
     </row>
     <row r="81" ht="18" spans="1:11">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>274</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -13998,10 +14026,10 @@
       <c r="K81" s="4"/>
     </row>
     <row r="82" ht="36" spans="1:11">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>277</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -14017,10 +14045,10 @@
       <c r="K82" s="4"/>
     </row>
     <row r="83" ht="36" spans="1:11">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>280</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -14036,10 +14064,10 @@
       <c r="K83" s="4"/>
     </row>
     <row r="84" ht="18" spans="1:11">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -14055,10 +14083,10 @@
       <c r="K84" s="4"/>
     </row>
     <row r="85" ht="18" spans="1:11">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>201</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -14074,10 +14102,10 @@
       <c r="K85" s="4"/>
     </row>
     <row r="86" ht="18" spans="1:11">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -14093,10 +14121,10 @@
       <c r="K86" s="4"/>
     </row>
     <row r="87" ht="18" spans="1:11">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>283</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -14112,10 +14140,10 @@
       <c r="K87" s="4"/>
     </row>
     <row r="88" ht="18" spans="1:11">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>286</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -14131,10 +14159,10 @@
       <c r="K88" s="4"/>
     </row>
     <row r="89" ht="18" spans="1:11">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>289</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -14150,10 +14178,10 @@
       <c r="K89" s="4"/>
     </row>
     <row r="90" ht="18" spans="1:11">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -14169,10 +14197,10 @@
       <c r="K90" s="4"/>
     </row>
     <row r="91" ht="18" spans="1:11">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -14188,10 +14216,10 @@
       <c r="K91" s="4"/>
     </row>
     <row r="92" ht="18" spans="1:11">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>292</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -14207,7 +14235,7 @@
       <c r="K92" s="4"/>
     </row>
     <row r="93" ht="18" spans="2:11">
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>294</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -14223,60 +14251,60 @@
       <c r="K93" s="4"/>
     </row>
     <row r="94" ht="18" spans="2:3">
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
     </row>
     <row r="95" ht="18" spans="2:3">
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
     </row>
     <row r="96" ht="18" spans="2:3">
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
     </row>
     <row r="97" ht="18" spans="2:3">
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
     </row>
     <row r="98" ht="18" spans="2:3">
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
     </row>
     <row r="99" ht="18" spans="2:3">
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
     </row>
     <row r="100" ht="18" spans="2:3">
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
     </row>
     <row r="101" ht="18" spans="2:3">
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
     </row>
     <row r="102" ht="18" spans="2:3">
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
     </row>
     <row r="103" ht="18" spans="2:3">
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
     </row>
     <row r="104" ht="18" spans="2:3">
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
     </row>
     <row r="105" ht="18" spans="2:3">
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
     </row>
     <row r="106" ht="18" spans="2:3">
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
     </row>
     <row r="107" ht="18" spans="2:3">
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14289,7 +14317,7 @@
   <sheetPr/>
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E122"/>
     </sheetView>
   </sheetViews>
@@ -14324,7 +14352,7 @@
         <f>MID(F1,96,1)</f>
         <v>步</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>297</v>
       </c>
       <c r="G1" t="str">
@@ -14352,7 +14380,7 @@
         <f t="shared" ref="E2:E33" si="4">MID(F2,96,1)</f>
         <v>进</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="6" t="s">
         <v>299</v>
       </c>
       <c r="G2" t="str">
@@ -14380,7 +14408,7 @@
         <f t="shared" si="4"/>
         <v>频</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="6" t="s">
         <v>301</v>
       </c>
       <c r="G3" t="str">
@@ -14408,7 +14436,7 @@
         <f t="shared" si="4"/>
         <v>率</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>303</v>
       </c>
       <c r="G4" t="str">
@@ -14436,7 +14464,7 @@
         <f t="shared" si="4"/>
         <v>接</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>305</v>
       </c>
       <c r="G5" t="str">
@@ -14465,7 +14493,7 @@
         <f t="shared" si="4"/>
         <v>收</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>307</v>
       </c>
       <c r="G6" t="str">
@@ -14494,7 +14522,7 @@
         <f t="shared" si="4"/>
         <v>数</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="6" t="s">
         <v>309</v>
       </c>
       <c r="G7" t="str">
@@ -14523,7 +14551,7 @@
         <f t="shared" si="4"/>
         <v>字</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="6" t="s">
         <v>311</v>
       </c>
       <c r="G8" t="str">
@@ -14551,7 +14579,7 @@
         <f t="shared" si="4"/>
         <v>亚</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="6" t="s">
         <v>313</v>
       </c>
       <c r="G9" t="str">
@@ -14579,7 +14607,7 @@
         <f t="shared" si="4"/>
         <v>音</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="6" t="s">
         <v>315</v>
       </c>
       <c r="G10" t="str">
@@ -14607,7 +14635,7 @@
         <f t="shared" si="4"/>
         <v>模</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="6" t="s">
         <v>317</v>
       </c>
       <c r="G11" t="str">
@@ -14635,7 +14663,7 @@
         <f t="shared" si="4"/>
         <v>拟</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="6" t="s">
         <v>319</v>
       </c>
       <c r="G12" t="str">
@@ -14663,7 +14691,7 @@
         <f t="shared" si="4"/>
         <v>发</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="6" t="s">
         <v>321</v>
       </c>
       <c r="G13" t="str">
@@ -14691,7 +14719,7 @@
         <f t="shared" si="4"/>
         <v>送</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="6" t="s">
         <v>323</v>
       </c>
       <c r="G14" t="str">
@@ -14719,7 +14747,7 @@
         <f t="shared" si="4"/>
         <v>差</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="6" t="s">
         <v>325</v>
       </c>
       <c r="G15" t="str">
@@ -14747,7 +14775,7 @@
         <f t="shared" si="4"/>
         <v>方</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="6" t="s">
         <v>327</v>
       </c>
       <c r="G16" t="str">
@@ -14775,7 +14803,7 @@
         <f t="shared" si="4"/>
         <v>向</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="6" t="s">
         <v>329</v>
       </c>
       <c r="G17" t="str">
@@ -14803,7 +14831,7 @@
         <f t="shared" si="4"/>
         <v>加</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="6" t="s">
         <v>331</v>
       </c>
       <c r="G18" t="str">
@@ -14832,7 +14860,7 @@
         <f t="shared" si="4"/>
         <v>密</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="6" t="s">
         <v>333</v>
       </c>
       <c r="G19" t="str">
@@ -14861,7 +14889,7 @@
         <f t="shared" si="4"/>
         <v>遇</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="6" t="s">
         <v>335</v>
       </c>
       <c r="G20" t="str">
@@ -14890,7 +14918,7 @@
         <f t="shared" si="4"/>
         <v>忙</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="6" t="s">
         <v>337</v>
       </c>
       <c r="G21" t="str">
@@ -14918,7 +14946,7 @@
         <f t="shared" si="4"/>
         <v>禁</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="6" t="s">
         <v>339</v>
       </c>
       <c r="G22" t="str">
@@ -14946,7 +14974,7 @@
         <f t="shared" si="4"/>
         <v>压</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="6" t="s">
         <v>341</v>
       </c>
       <c r="G23" t="str">
@@ -14974,7 +15002,7 @@
         <f t="shared" si="4"/>
         <v>扩</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="6" t="s">
         <v>343</v>
       </c>
       <c r="G24" t="str">
@@ -15002,7 +15030,7 @@
         <f t="shared" si="4"/>
         <v>存</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="6" t="s">
         <v>345</v>
       </c>
       <c r="G25" t="str">
@@ -15030,7 +15058,7 @@
         <f t="shared" si="4"/>
         <v>置</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="6" t="s">
         <v>347</v>
       </c>
       <c r="G26" t="str">
@@ -15058,7 +15086,7 @@
         <f t="shared" si="4"/>
         <v>信</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="6" t="s">
         <v>349</v>
       </c>
       <c r="G27" t="str">
@@ -15086,7 +15114,7 @@
         <f t="shared" si="4"/>
         <v>道</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="6" t="s">
         <v>351</v>
       </c>
       <c r="G28" t="str">
@@ -15115,7 +15143,7 @@
         <f t="shared" si="4"/>
         <v>删</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="6" t="s">
         <v>353</v>
       </c>
       <c r="G29" t="str">
@@ -15144,7 +15172,7 @@
         <f t="shared" si="4"/>
         <v>除</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="6" t="s">
         <v>355</v>
       </c>
       <c r="G30" t="str">
@@ -15173,7 +15201,7 @@
         <f t="shared" si="4"/>
         <v>命</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="6" t="s">
         <v>357</v>
       </c>
       <c r="G31" t="str">
@@ -15202,7 +15230,7 @@
         <f t="shared" si="4"/>
         <v>名</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="6" t="s">
         <v>359</v>
       </c>
       <c r="G32" t="str">
@@ -15231,7 +15259,7 @@
         <f t="shared" si="4"/>
         <v>扫</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="6" t="s">
         <v>361</v>
       </c>
       <c r="G33" t="str">
@@ -15260,7 +15288,7 @@
         <f t="shared" ref="E34:E65" si="9">MID(F34,96,1)</f>
         <v>描</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="6" t="s">
         <v>363</v>
       </c>
       <c r="G34" t="str">
@@ -15288,7 +15316,7 @@
         <f t="shared" si="9"/>
         <v>列</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="6" t="s">
         <v>365</v>
       </c>
       <c r="G35" t="str">
@@ -15316,7 +15344,7 @@
         <f t="shared" si="9"/>
         <v>表</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="6" t="s">
         <v>367</v>
       </c>
       <c r="G36" t="str">
@@ -15344,7 +15372,7 @@
         <f t="shared" si="9"/>
         <v>搜</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="6" t="s">
         <v>369</v>
       </c>
       <c r="G37" t="str">
@@ -15372,7 +15400,7 @@
         <f t="shared" si="9"/>
         <v>索</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="6" t="s">
         <v>371</v>
       </c>
       <c r="G38" t="str">
@@ -15400,7 +15428,7 @@
         <f t="shared" si="9"/>
         <v>恢</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="6" t="s">
         <v>373</v>
       </c>
       <c r="G39" t="str">
@@ -15428,7 +15456,7 @@
         <f t="shared" si="9"/>
         <v>复</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="6" t="s">
         <v>375</v>
       </c>
       <c r="G40" t="str">
@@ -15456,7 +15484,7 @@
         <f t="shared" si="9"/>
         <v>式</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="6" t="s">
         <v>377</v>
       </c>
       <c r="G41" t="str">
@@ -15484,7 +15512,7 @@
         <f t="shared" si="9"/>
         <v>超</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="6" t="s">
         <v>379</v>
       </c>
       <c r="G42" t="str">
@@ -15512,7 +15540,7 @@
         <f t="shared" si="9"/>
         <v>时</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="6" t="s">
         <v>381</v>
       </c>
       <c r="G43" t="str">
@@ -15540,7 +15568,7 @@
         <f t="shared" si="9"/>
         <v>省</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="6" t="s">
         <v>383</v>
       </c>
       <c r="G44" t="str">
@@ -15568,7 +15596,7 @@
         <f t="shared" si="9"/>
         <v>电</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="6" t="s">
         <v>385</v>
       </c>
       <c r="G45" t="str">
@@ -15596,7 +15624,7 @@
         <f t="shared" si="9"/>
         <v>麦</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="6" t="s">
         <v>387</v>
       </c>
       <c r="G46" t="str">
@@ -15625,7 +15653,7 @@
         <f t="shared" si="9"/>
         <v>克</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="6" t="s">
         <v>389</v>
       </c>
       <c r="G47" t="str">
@@ -15654,7 +15682,7 @@
         <f t="shared" si="9"/>
         <v>风</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="6" t="s">
         <v>391</v>
       </c>
       <c r="G48" t="str">
@@ -15683,7 +15711,7 @@
         <f t="shared" si="9"/>
         <v>增</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="6" t="s">
         <v>393</v>
       </c>
       <c r="G49" t="str">
@@ -15712,7 +15740,7 @@
         <f t="shared" si="9"/>
         <v>益</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="6" t="s">
         <v>395</v>
       </c>
       <c r="G50" t="str">
@@ -15740,7 +15768,7 @@
         <f t="shared" si="9"/>
         <v>显</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="6" t="s">
         <v>397</v>
       </c>
       <c r="G51" t="str">
@@ -15769,7 +15797,7 @@
         <f t="shared" si="9"/>
         <v>示</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="6" t="s">
         <v>399</v>
       </c>
       <c r="G52" t="str">
@@ -15798,7 +15826,7 @@
         <f t="shared" si="9"/>
         <v>自</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="6" t="s">
         <v>401</v>
       </c>
       <c r="G53" t="str">
@@ -15827,7 +15855,7 @@
         <f t="shared" si="9"/>
         <v>动</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="6" t="s">
         <v>403</v>
       </c>
       <c r="G54" t="str">
@@ -15856,7 +15884,7 @@
         <f t="shared" si="9"/>
         <v>背</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="6" t="s">
         <v>405</v>
       </c>
       <c r="G55" t="str">
@@ -15885,7 +15913,7 @@
         <f t="shared" si="9"/>
         <v>光</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="6" t="s">
         <v>407</v>
       </c>
       <c r="G56" t="str">
@@ -15913,7 +15941,7 @@
         <f t="shared" si="9"/>
         <v>亮</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="6" t="s">
         <v>409</v>
       </c>
       <c r="G57" t="str">
@@ -15941,7 +15969,7 @@
         <f t="shared" si="9"/>
         <v>度</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="6" t="s">
         <v>411</v>
       </c>
       <c r="G58" t="str">
@@ -15969,7 +15997,7 @@
         <f t="shared" si="9"/>
         <v>首</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="6" t="s">
         <v>413</v>
       </c>
       <c r="G59" t="str">
@@ -15998,7 +16026,7 @@
         <f t="shared" si="9"/>
         <v>尾</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="6" t="s">
         <v>415</v>
       </c>
       <c r="G60" t="str">
@@ -16026,7 +16054,7 @@
         <f t="shared" si="9"/>
         <v>消</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="6" t="s">
         <v>417</v>
       </c>
       <c r="G61" t="str">
@@ -16055,7 +16083,7 @@
         <f t="shared" si="9"/>
         <v>过</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="6" t="s">
         <v>419</v>
       </c>
       <c r="G62" t="str">
@@ -16084,7 +16112,7 @@
         <f t="shared" si="9"/>
         <v>中</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="6" t="s">
         <v>421</v>
       </c>
       <c r="G63" t="str">
@@ -16113,7 +16141,7 @@
         <f t="shared" si="9"/>
         <v>继</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="6" t="s">
         <v>423</v>
       </c>
       <c r="G64" t="str">
@@ -16141,7 +16169,7 @@
         <f t="shared" si="9"/>
         <v>按</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="6" t="s">
         <v>425</v>
       </c>
       <c r="G65" t="str">
@@ -16169,7 +16197,7 @@
         <f t="shared" ref="E66:E97" si="14">MID(F66,96,1)</f>
         <v>键</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="6" t="s">
         <v>427</v>
       </c>
       <c r="G66" t="str">
@@ -16197,7 +16225,7 @@
         <f t="shared" si="14"/>
         <v>即</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="6" t="s">
         <v>429</v>
       </c>
       <c r="G67" t="str">
@@ -16225,7 +16253,7 @@
         <f t="shared" si="14"/>
         <v>呼</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="6" t="s">
         <v>431</v>
       </c>
       <c r="G68" t="str">
@@ -16253,7 +16281,7 @@
         <f t="shared" si="14"/>
         <v>上</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="6" t="s">
         <v>433</v>
       </c>
       <c r="G69" t="str">
@@ -16281,7 +16309,7 @@
         <f t="shared" si="14"/>
         <v>线</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="6" t="s">
         <v>435</v>
       </c>
       <c r="G70" t="str">
@@ -16309,7 +16337,7 @@
         <f t="shared" si="14"/>
         <v>码</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="6" t="s">
         <v>437</v>
       </c>
       <c r="G71" t="str">
@@ -16337,7 +16365,7 @@
         <f t="shared" si="14"/>
         <v>下</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="6" t="s">
         <v>439</v>
       </c>
       <c r="G72" t="str">
@@ -16365,7 +16393,7 @@
         <f t="shared" si="14"/>
         <v>侧</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="6" t="s">
         <v>441</v>
       </c>
       <c r="G73" t="str">
@@ -16393,7 +16421,7 @@
         <f t="shared" si="14"/>
         <v>响</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="6" t="s">
         <v>443</v>
       </c>
       <c r="G74" t="str">
@@ -16421,7 +16449,7 @@
         <f t="shared" si="14"/>
         <v>应</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="6" t="s">
         <v>445</v>
       </c>
       <c r="G75" t="str">
@@ -16449,7 +16477,7 @@
         <f t="shared" si="14"/>
         <v>位</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="6" t="s">
         <v>447</v>
       </c>
       <c r="G76" t="str">
@@ -16477,7 +16505,7 @@
         <f t="shared" si="14"/>
         <v>预</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="6" t="s">
         <v>449</v>
       </c>
       <c r="G77" t="str">
@@ -16505,7 +16533,7 @@
         <f t="shared" si="14"/>
         <v>载</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="6" t="s">
         <v>451</v>
       </c>
       <c r="G78" t="str">
@@ -16533,7 +16561,7 @@
         <f t="shared" si="14"/>
         <v>波</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="6" t="s">
         <v>453</v>
       </c>
       <c r="G79" t="str">
@@ -16561,7 +16589,7 @@
         <f t="shared" si="14"/>
         <v>联</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="6" t="s">
         <v>455</v>
       </c>
       <c r="G80" t="str">
@@ -16589,7 +16617,7 @@
         <f t="shared" si="14"/>
         <v>系</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="6" t="s">
         <v>457</v>
       </c>
       <c r="G81" t="str">
@@ -16617,7 +16645,7 @@
         <f t="shared" si="14"/>
         <v>人</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="6" t="s">
         <v>459</v>
       </c>
       <c r="G82" t="str">
@@ -16645,7 +16673,7 @@
         <f t="shared" si="14"/>
         <v>静</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="6" t="s">
         <v>461</v>
       </c>
       <c r="G83" t="str">
@@ -16673,7 +16701,7 @@
         <f t="shared" si="14"/>
         <v>噪</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G84" t="str">
@@ -16702,7 +16730,7 @@
         <f t="shared" si="14"/>
         <v>等</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="6" t="s">
         <v>465</v>
       </c>
       <c r="G85" t="str">
@@ -16731,7 +16759,7 @@
         <f t="shared" si="14"/>
         <v>级</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="6" t="s">
         <v>467</v>
       </c>
       <c r="G86" t="str">
@@ -16760,7 +16788,7 @@
         <f t="shared" si="14"/>
         <v>段</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="6" t="s">
         <v>469</v>
       </c>
       <c r="G87" t="str">
@@ -16788,7 +16816,7 @@
         <f t="shared" si="14"/>
         <v>解</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="6" t="s">
         <v>471</v>
       </c>
       <c r="G88" t="str">
@@ -16816,7 +16844,7 @@
         <f t="shared" si="14"/>
         <v>锁</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="6" t="s">
         <v>473</v>
       </c>
       <c r="G89" t="str">
@@ -16844,7 +16872,7 @@
         <f t="shared" si="14"/>
         <v>射</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="6" t="s">
         <v>475</v>
       </c>
       <c r="G90" t="str">
@@ -16872,7 +16900,7 @@
         <f t="shared" si="14"/>
         <v>池</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F91" s="6" t="s">
         <v>477</v>
       </c>
       <c r="G91" t="str">
@@ -16901,7 +16929,7 @@
         <f t="shared" si="14"/>
         <v>调</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="6" t="s">
         <v>479</v>
       </c>
       <c r="G92" t="str">
@@ -16930,7 +16958,7 @@
         <f t="shared" si="14"/>
         <v>大</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G93" t="str">
@@ -16958,7 +16986,7 @@
         <f t="shared" si="14"/>
         <v>小</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="6" t="s">
         <v>483</v>
       </c>
       <c r="G94" t="str">
@@ -16986,7 +17014,7 @@
         <f t="shared" si="14"/>
         <v>参</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="6" t="s">
         <v>485</v>
       </c>
       <c r="G95" t="str">
@@ -17014,7 +17042,7 @@
         <f t="shared" si="14"/>
         <v>偏</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="6" t="s">
         <v>487</v>
       </c>
       <c r="G96" t="str">
@@ -17042,7 +17070,7 @@
         <f t="shared" si="14"/>
         <v>移</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="6" t="s">
         <v>489</v>
       </c>
       <c r="G97" t="str">
@@ -17071,7 +17099,7 @@
         <f t="shared" ref="E98:E122" si="19">MID(F98,96,1)</f>
         <v>关</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="6" t="s">
         <v>491</v>
       </c>
       <c r="G98" t="str">
@@ -17100,7 +17128,7 @@
         <f t="shared" si="19"/>
         <v>闭</v>
       </c>
-      <c r="F99" s="13" t="s">
+      <c r="F99" s="6" t="s">
         <v>493</v>
       </c>
       <c r="G99" t="str">
@@ -17129,7 +17157,7 @@
         <f t="shared" si="19"/>
         <v>开</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="6" t="s">
         <v>495</v>
       </c>
       <c r="G100" t="str">
@@ -17157,7 +17185,7 @@
         <f t="shared" si="19"/>
         <v>启</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="F101" s="6" t="s">
         <v>497</v>
       </c>
       <c r="G101" t="str">
@@ -17185,7 +17213,7 @@
         <f t="shared" si="19"/>
         <v>秒</v>
       </c>
-      <c r="F102" s="13" t="s">
+      <c r="F102" s="6" t="s">
         <v>499</v>
       </c>
       <c r="G102" t="str">
@@ -17213,7 +17241,7 @@
         <f t="shared" si="19"/>
         <v>分</v>
       </c>
-      <c r="F103" s="13" t="s">
+      <c r="F103" s="6" t="s">
         <v>501</v>
       </c>
       <c r="G103" t="str">
@@ -17242,7 +17270,7 @@
         <f t="shared" si="19"/>
         <v>主</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F104" s="6" t="s">
         <v>503</v>
       </c>
       <c r="G104" t="str">
@@ -17271,7 +17299,7 @@
         <f t="shared" si="19"/>
         <v>双</v>
       </c>
-      <c r="F105" s="13" t="s">
+      <c r="F105" s="6" t="s">
         <v>505</v>
       </c>
       <c r="G105" t="str">
@@ -17299,7 +17327,7 @@
         <f t="shared" si="19"/>
         <v>副</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="6" t="s">
         <v>507</v>
       </c>
       <c r="G106" t="str">
@@ -17327,7 +17355,7 @@
         <f t="shared" si="19"/>
         <v>号</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="F107" s="6" t="s">
         <v>509</v>
       </c>
       <c r="G107" t="str">
@@ -17355,7 +17383,7 @@
         <f t="shared" si="19"/>
         <v>后</v>
       </c>
-      <c r="F108" s="13" t="s">
+      <c r="F108" s="6" t="s">
         <v>511</v>
       </c>
       <c r="G108" t="str">
@@ -17383,7 +17411,7 @@
         <f t="shared" si="19"/>
         <v>停</v>
       </c>
-      <c r="F109" s="13" t="s">
+      <c r="F109" s="6" t="s">
         <v>513</v>
       </c>
       <c r="G109" t="str">
@@ -17411,7 +17439,7 @@
         <f t="shared" si="19"/>
         <v>止</v>
       </c>
-      <c r="F110" s="13" t="s">
+      <c r="F110" s="6" t="s">
         <v>515</v>
       </c>
       <c r="G110" t="str">
@@ -17439,7 +17467,7 @@
         <f t="shared" si="19"/>
         <v>称</v>
       </c>
-      <c r="F111" s="13" t="s">
+      <c r="F111" s="6" t="s">
         <v>517</v>
       </c>
       <c r="G111" t="str">
@@ -17467,7 +17495,7 @@
         <f t="shared" si="19"/>
         <v>不</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="F112" s="6" t="s">
         <v>519</v>
       </c>
       <c r="G112" t="str">
@@ -17495,7 +17523,7 @@
         <f t="shared" si="19"/>
         <v>本</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="6" t="s">
         <v>521</v>
       </c>
       <c r="G113" t="str">
@@ -17523,7 +17551,7 @@
         <f t="shared" si="19"/>
         <v>地</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="6" t="s">
         <v>523</v>
       </c>
       <c r="G114" t="str">
@@ -17551,7 +17579,7 @@
         <f t="shared" si="19"/>
         <v>铃</v>
       </c>
-      <c r="F115" s="13" t="s">
+      <c r="F115" s="6" t="s">
         <v>525</v>
       </c>
       <c r="G115" t="str">
@@ -17579,7 +17607,7 @@
         <f t="shared" si="19"/>
         <v>回</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="6" t="s">
         <v>527</v>
       </c>
       <c r="G116" t="str">
@@ -17607,7 +17635,7 @@
         <f t="shared" si="19"/>
         <v>全</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F117" s="6" t="s">
         <v>529</v>
       </c>
       <c r="G117" t="str">
@@ -17635,7 +17663,7 @@
         <f t="shared" si="19"/>
         <v>部</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="F118" s="6" t="s">
         <v>531</v>
       </c>
       <c r="G118" t="str">
@@ -17663,7 +17691,7 @@
         <f t="shared" si="19"/>
         <v>用</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F119" s="6" t="s">
         <v>533</v>
       </c>
       <c r="G119" t="str">
@@ -17691,7 +17719,7 @@
         <f t="shared" si="19"/>
         <v>低</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="6" t="s">
         <v>535</v>
       </c>
       <c r="G120" t="str">
@@ -17719,7 +17747,7 @@
         <f t="shared" si="19"/>
         <v>长</v>
       </c>
-      <c r="F121" s="13" t="s">
+      <c r="F121" s="6" t="s">
         <v>537</v>
       </c>
       <c r="G121" t="str">
@@ -17747,7 +17775,7 @@
         <f t="shared" si="19"/>
         <v>高</v>
       </c>
-      <c r="F122" s="13" t="s">
+      <c r="F122" s="6" t="s">
         <v>539</v>
       </c>
       <c r="G122" t="str">
@@ -18838,8 +18866,8 @@
   <sheetPr/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -20641,24 +20669,23 @@
       <c r="A95" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="B95" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>MDC首音+ROGER</v>
-      </c>
-      <c r="C95" s="11" t="s">
+      <c r="B95" s="11" t="s">
         <v>895</v>
       </c>
+      <c r="C95" s="12" t="s">
+        <v>896</v>
+      </c>
       <c r="D95" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="5"/>
-        <v>#define MDC首音+ROGER "\x4D\x44\x43\x9B\x0B\x2B\n\x52\x4F\x47\x45\x52"</v>
+        <v>#define MDC首音加ROGER "\x4D\x44\x43\x9B\x0B\x2B\n\x52\x4F\x47\x45\x52"</v>
       </c>
     </row>
     <row r="96" ht="18" spans="1:5">
       <c r="A96" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" ref="B96:B118" si="6">LEFT(A96,FIND("""",A96)-1)</f>
@@ -20668,7 +20695,7 @@
         <v>271</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" ref="E96:E118" si="7">"#define "&amp;B96&amp;" """&amp;D96&amp;""""</f>
@@ -20677,7 +20704,7 @@
     </row>
     <row r="97" ht="18" spans="1:5">
       <c r="A97" s="5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B97" s="3" t="str">
         <f t="shared" si="6"/>
@@ -20687,7 +20714,7 @@
         <v>274</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="7"/>
@@ -20696,7 +20723,7 @@
     </row>
     <row r="98" ht="18" spans="1:5">
       <c r="A98" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B98" s="3" t="str">
         <f t="shared" si="6"/>
@@ -20706,7 +20733,7 @@
         <v>277</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="7"/>
@@ -20715,7 +20742,7 @@
     </row>
     <row r="99" ht="18" spans="1:5">
       <c r="A99" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B99" s="3" t="str">
         <f t="shared" si="6"/>
@@ -20725,7 +20752,7 @@
         <v>280</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="7"/>
@@ -20734,17 +20761,17 @@
     </row>
     <row r="100" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A100" s="7" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B100" s="3" t="str">
         <f t="shared" si="6"/>
         <v>五秒</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="7"/>
@@ -20753,17 +20780,17 @@
     </row>
     <row r="101" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A101" s="7" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B101" s="3" t="str">
         <f t="shared" si="6"/>
         <v>十秒</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="7"/>
@@ -20772,17 +20799,17 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A102" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B102" s="3" t="str">
         <f t="shared" si="6"/>
         <v>二十秒</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="7"/>
@@ -20791,7 +20818,7 @@
     </row>
     <row r="103" ht="18" spans="1:5">
       <c r="A103" s="5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B103" s="3" t="str">
         <f t="shared" si="6"/>
@@ -20801,7 +20828,7 @@
         <v>283</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="7"/>
@@ -20810,7 +20837,7 @@
     </row>
     <row r="104" ht="18" spans="1:5">
       <c r="A104" s="5" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B104" s="3" t="str">
         <f t="shared" si="6"/>
@@ -20820,7 +20847,7 @@
         <v>286</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="7"/>
@@ -20829,17 +20856,17 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A105" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B105" s="3" t="str">
         <f t="shared" si="6"/>
         <v>发送接收时</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="7"/>
@@ -20848,17 +20875,17 @@
     </row>
     <row r="106" ht="18" spans="1:5">
       <c r="A106" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B106" s="3" t="str">
         <f t="shared" si="6"/>
         <v>全部</v>
       </c>
       <c r="C106" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="7"/>
@@ -20867,17 +20894,17 @@
     </row>
     <row r="107" ht="18" spans="1:5">
       <c r="A107" s="5" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B107" s="3" t="str">
         <f t="shared" si="6"/>
         <v>扫描</v>
       </c>
       <c r="C107" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="7"/>
@@ -20886,17 +20913,17 @@
     </row>
     <row r="108" ht="18" spans="1:5">
       <c r="A108" s="5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B108" s="3" t="str">
         <f t="shared" si="6"/>
         <v>低电压</v>
       </c>
       <c r="C108" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="7"/>
@@ -20905,17 +20932,17 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A109" s="7" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B109" s="3" t="str">
         <f t="shared" si="6"/>
         <v>长按井键解锁</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="7"/>
@@ -20924,17 +20951,17 @@
     </row>
     <row r="110" ht="18" spans="1:5">
       <c r="A110" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B110" s="3" t="str">
         <f t="shared" si="6"/>
         <v>遇忙</v>
       </c>
       <c r="C110" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="7"/>
@@ -20943,17 +20970,17 @@
     </row>
     <row r="111" ht="18" spans="1:5">
       <c r="A111" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B111" s="3" t="str">
         <f t="shared" si="6"/>
         <v>禁止发射</v>
       </c>
       <c r="C111" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="7"/>
@@ -20981,17 +21008,17 @@
     </row>
     <row r="113" ht="18" spans="1:5">
       <c r="A113" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B113" s="3" t="str">
         <f t="shared" si="6"/>
         <v>高电压</v>
       </c>
       <c r="C113" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="7"/>
@@ -21000,17 +21027,17 @@
     </row>
     <row r="114" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A114" s="7" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B114" s="3" t="str">
         <f t="shared" si="6"/>
         <v>按EXIT键</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="7"/>
@@ -21019,17 +21046,17 @@
     </row>
     <row r="115" ht="18" spans="1:5">
       <c r="A115" s="5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B115" s="3" t="str">
         <f t="shared" si="6"/>
         <v>全部按键</v>
       </c>
       <c r="C115" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="7"/>
@@ -21038,17 +21065,17 @@
     </row>
     <row r="116" ht="18" spans="1:5">
       <c r="A116" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B116" s="3" t="str">
         <f t="shared" si="6"/>
         <v>解锁</v>
       </c>
       <c r="C116" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="7"/>
@@ -21057,17 +21084,17 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A117" s="7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B117" s="3" t="str">
         <f t="shared" si="6"/>
         <v>存置问</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="7"/>
@@ -21076,17 +21103,17 @@
     </row>
     <row r="118" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A118" s="7" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B118" s="3" t="str">
         <f t="shared" si="6"/>
         <v>存置了</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="7"/>
